--- a/config/excel/ServerList.xlsx
+++ b/config/excel/ServerList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proj\demo1\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\server_demo\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B42B83-415B-44DC-A7FC-E8BAA983C202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="405" windowWidth="20445" windowHeight="20595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16200" yWindow="408" windowWidth="20448" windowHeight="20592"/>
   </bookViews>
   <sheets>
     <sheet name="ServerList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,41 +24,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logicServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器类型内索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器类型名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ServerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ServerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接目标服务器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 9998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ServerIp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对外地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logicServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gateServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:1000</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 9997</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,38 +130,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConnectList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器类型名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器类型内索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器连接目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logicServer</t>
+    <t>网络线程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetThreadsNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,98 +459,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="H5">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20001</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/ServerList.xlsx
+++ b/config/excel/ServerList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proj\server_demo\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proj\demo1\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B3DFBF-A2FE-4C83-912C-AEA08CE33811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="408" windowWidth="20448" windowHeight="20592"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerList" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,58 +91,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[int32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务对外地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 9997</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络线程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetThreadsNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbSercer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>127.0.0.1 9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int32]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对外地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PublicIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1 9997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络线程数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetThreadsNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,25 +464,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -488,19 +493,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -514,19 +519,19 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -540,19 +545,19 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -566,19 +571,19 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -592,13 +597,36 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30001</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/ServerList.xlsx
+++ b/config/excel/ServerList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proj\demo1\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B3DFBF-A2FE-4C83-912C-AEA08CE33811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5AF3FB-F82D-406A-A068-059BD08756A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>127.0.0.1 9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 9990</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +472,7 @@
   <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>

--- a/config/excel/ServerList.xlsx
+++ b/config/excel/ServerList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proj\demo1\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proj\server_demo\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5AF3FB-F82D-406A-A068-059BD08756A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC15C0-E4AE-4210-8EBD-0F93D3279B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,26 @@
   </si>
   <si>
     <t>127.0.0.1 9990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP线程数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1 10097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpThreadsNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,10 +503,10 @@
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -508,8 +528,14 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -534,8 +560,14 @@
       <c r="H3" t="s">
         <v>24</v>
       </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -560,8 +592,14 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -586,8 +624,14 @@
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -610,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30001</v>
       </c>

--- a/config/excel/ServerList.xlsx
+++ b/config/excel/ServerList.xlsx
@@ -1,201 +1,479 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proj\server_demo\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BC15C0-E4AE-4210-8EBD-0F93D3279B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15325" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="ServerList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>服务器类型</t>
+  </si>
+  <si>
+    <t>服务器类型名</t>
+  </si>
+  <si>
+    <t>服务器类型内索引</t>
+  </si>
+  <si>
+    <t>服务对外地址</t>
+  </si>
+  <si>
+    <t>服务器地址</t>
+  </si>
+  <si>
+    <t>连接目标服务器类型</t>
+  </si>
+  <si>
+    <t>网络线程数量</t>
+  </si>
+  <si>
+    <t>HTTP地址</t>
+  </si>
+  <si>
+    <t>HTTP线程数量</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[int32]</t>
+  </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logicServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerType</t>
+  </si>
+  <si>
+    <t>ServerName</t>
   </si>
   <si>
     <t>ServerIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gateServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublicIp</t>
+  </si>
+  <si>
+    <t>ServerIp</t>
   </si>
   <si>
     <t>ConnectList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器类型内索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器类型名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接目标服务器类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetThreadsNum</t>
+  </si>
+  <si>
+    <t>HttpIp</t>
+  </si>
+  <si>
+    <t>HttpThreadsNum</t>
+  </si>
+  <si>
+    <t>GateServer</t>
+  </si>
+  <si>
+    <t>127.0.0.1 9990</t>
+  </si>
+  <si>
+    <t>127.0.0.1 9997</t>
+  </si>
+  <si>
+    <t>127.0.0.1 10097</t>
+  </si>
+  <si>
+    <t>LogicServer</t>
   </si>
   <si>
     <t>127.0.0.1 9998</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int32]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServerIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务对外地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PublicIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1 9997</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络线程数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetThreadsNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbSercer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbSercer</t>
   </si>
   <si>
     <t>127.0.0.1 9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1 9990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP线程数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1 10097</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpThreadsNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,26 +481,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -269,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -304,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -478,128 +1037,122 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -607,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -625,13 +1178,13 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -639,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -654,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>30001</v>
       </c>
@@ -662,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -678,8 +1231,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/excel/ServerList.xlsx
+++ b/config/excel/ServerList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15325" windowHeight="4740"/>
+    <workbookView windowWidth="24582" windowHeight="12437"/>
   </bookViews>
   <sheets>
     <sheet name="ServerList" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +129,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,135 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,13 +281,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,169 +425,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,80 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,157 +492,231 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1039,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6"/>
@@ -1200,9 +1193,7 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
+      <c r="G6"/>
       <c r="H6">
         <v>2</v>
       </c>
